--- a/new/demo.xlsx
+++ b/new/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo\Desktop\TN\NatureDash\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C0A8E2-45DF-4B77-8530-3E463B3C77A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA331980-C62B-4B52-9A9A-87BE25378572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[[content 1]] and [[content2]] is parsed from the inputs. For example, input_1 and input_2 corresponds to data in a given location (x1,y1) ad input_3 and input_4 location(x2,y2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,6 +136,10 @@
       </rPr>
       <t>[[VERY IMPORTANT]]</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Each row corresponds to one content</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -768,15 +768,15 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="12">
         <v>55</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -834,7 +834,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7893328B-B8D5-4EE7-8273-1214B0EEB6C0}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="12">
         <v>55</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCB505D-1337-4225-9918-F6D21504CAC2}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A5" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1239,10 +1239,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="13">
         <v>0.63611111111111118</v>
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="16">
         <v>7.875</v>
@@ -1266,17 +1266,17 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="163" customHeight="1">
       <c r="E8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="72">
       <c r="E9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
